--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>148,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>148,05%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>208,61%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>73,95%</t>
         </is>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,89; 8,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,13</t>
+          <t>4,4; 9,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,46</t>
+          <t>2,94; 9,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 9,62</t>
+          <t>60,4; 297,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,86; 424,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,49; 296,34</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>92,71; 409,05</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>26,16; 125,12</t>
+          <t>30,37; 132,29</t>
         </is>
       </c>
     </row>
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>162,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>180,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>162,84%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>180,42%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>173,3%</t>
         </is>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 7,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,55</t>
+          <t>3,31; 7,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,26</t>
+          <t>6,87; 12,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,85</t>
+          <t>79,71; 305,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,63; 336,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,7; 293,43</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>78,19; 317,18</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>96,45; 406,74</t>
+          <t>101,6; 420,2</t>
         </is>
       </c>
     </row>
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>124,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>124,53%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>178,06%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>51,24%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 6,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,92</t>
+          <t>2,78; 7,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,52</t>
+          <t>-2,05; 7,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 7,33</t>
+          <t>39,76; 255,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,36; 393,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,1; 260,8</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>67,98; 382,49</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-30,03; 125,57</t>
+          <t>-23,05; 126,62</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>191,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>191,46%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>181,8%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>128,71%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,53; 9,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,2</t>
+          <t>4,16; 8,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,71</t>
+          <t>5,67; 11,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,54</t>
+          <t>90,82; 325,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,86; 326,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,24; 336,86</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>92,47; 332,63</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>70,05; 196,24</t>
+          <t>75,15; 202,14</t>
         </is>
       </c>
     </row>
@@ -1020,40 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>159,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>159,87%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>186,74%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>109,25%</t>
         </is>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 6,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,03</t>
+          <t>4,69; 7,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,13</t>
+          <t>4,51; 8,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,18</t>
+          <t>111,2; 217,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>132,22; 256,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>108,48; 224,91</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>132,91; 263,77</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>69,62; 167,63</t>
+          <t>68,6; 159,89</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1000,12 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
